--- a/projects/test_building/input/Parameter_HeatingTechnology_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_HeatingTechnology_Lifetime.xlsx
@@ -368,7 +368,7 @@
   <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -398,10 +398,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="D2" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/projects/test_building/input/Parameter_HeatingTechnology_Lifetime.xlsx
+++ b/projects/test_building/input/Parameter_HeatingTechnology_Lifetime.xlsx
@@ -2,17 +2,22 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -21,10 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="5">
   <si>
-    <t>unit</t>
+    <t>id_heating_technology</t>
   </si>
   <si>
-    <t>year</t>
+    <t>unit</t>
   </si>
   <si>
     <t>min</t>
@@ -33,7 +38,7 @@
     <t>max</t>
   </si>
   <si>
-    <t>id_heating_technology</t>
+    <t>year</t>
   </si>
 </sst>
 </file>
@@ -43,10 +48,10 @@
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -71,7 +76,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -94,9 +99,9 @@
   <autoFilter ref="A1:D30"/>
   <tableColumns count="4">
     <tableColumn id="1" name="id_heating_technology"/>
-    <tableColumn id="5" name="unit"/>
-    <tableColumn id="6" name="min"/>
-    <tableColumn id="2" name="max"/>
+    <tableColumn id="2" name="unit"/>
+    <tableColumn id="3" name="min"/>
+    <tableColumn id="4" name="max"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -371,436 +376,436 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>27</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>29</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>29</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D12" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>210</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>210</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>211</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C15" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>211</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C16" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>212</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C17" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>213</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>31</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C19" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>33</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>34</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C23" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>41</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>42</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C25" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>43</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C26" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>44</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C27" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>45</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C28" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>46</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>50</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="1">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>